--- a/table.xlsx
+++ b/table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mii24\Desktop\羅馬字轉換\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67019C8-A62C-4D88-9109-F96CAE607256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC83BE-B5A2-4E40-9185-1F084028B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12072,8 +12072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28314,17 +28314,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A534:A535"/>
-    <mergeCell ref="D534:D535"/>
-    <mergeCell ref="E534:E535"/>
-    <mergeCell ref="F534:F535"/>
-    <mergeCell ref="G534:G535"/>
     <mergeCell ref="G774:G775"/>
     <mergeCell ref="A876:A878"/>
     <mergeCell ref="B876:B878"/>
@@ -28337,6 +28326,17 @@
     <mergeCell ref="D774:D775"/>
     <mergeCell ref="E774:E775"/>
     <mergeCell ref="F774:F775"/>
+    <mergeCell ref="A534:A535"/>
+    <mergeCell ref="D534:D535"/>
+    <mergeCell ref="E534:E535"/>
+    <mergeCell ref="F534:F535"/>
+    <mergeCell ref="G534:G535"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
